--- a/notebooks/2023_12_16_prostate_eval_results_w_fixed.xlsx
+++ b/notebooks/2023_12_16_prostate_eval_results_w_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\jordan\github\chaimeleon_open_challenges_rcjh\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC22E58-964A-45C0-AF2D-FB10B664ADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64DD993-C843-4309-82BE-26DC7724E2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="0" windowWidth="19176" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prostate_eval_results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>val_score</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>actual_test_rank</t>
+  </si>
+  <si>
+    <t>submission 1 - submission 2</t>
+  </si>
+  <si>
+    <t>top model (sub1 acc) - submission 1</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -583,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,11 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD51" sqref="AD51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1096,7 @@
       </c>
       <c r="AA2" s="11">
         <f>_xlfn.RANK.AVG(AB2, AB:AB)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
         <f>-1*Y2</f>
@@ -1187,7 +1196,7 @@
       </c>
       <c r="AA3" s="12">
         <f>_xlfn.RANK.AVG(AB3, AB:AB)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB3">
         <f>-1*Y3</f>
@@ -1287,7 +1296,7 @@
       </c>
       <c r="AA4" s="12">
         <f>_xlfn.RANK.AVG(AB4, AB:AB)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB4">
         <f>-1*Y4</f>
@@ -1387,7 +1396,7 @@
       </c>
       <c r="AA5" s="12">
         <f>_xlfn.RANK.AVG(AB5, AB:AB)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5">
         <f>-1*Y5</f>
@@ -1487,7 +1496,7 @@
       </c>
       <c r="AA6" s="12">
         <f>_xlfn.RANK.AVG(AB6, AB:AB)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB6">
         <f>-1*Y6</f>
@@ -1587,7 +1596,7 @@
       </c>
       <c r="AA7" s="12">
         <f>_xlfn.RANK.AVG(AB7, AB:AB)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB7">
         <f>-1*Y7</f>
@@ -1687,7 +1696,7 @@
       </c>
       <c r="AA8" s="12">
         <f>_xlfn.RANK.AVG(AB8, AB:AB)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB8">
         <f>-1*Y8</f>
@@ -1787,7 +1796,7 @@
       </c>
       <c r="AA9" s="12">
         <f>_xlfn.RANK.AVG(AB9, AB:AB)</f>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="AB9">
         <f>-1*Y9</f>
@@ -1887,7 +1896,7 @@
       </c>
       <c r="AA10" s="12">
         <f>_xlfn.RANK.AVG(AB10, AB:AB)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB10">
         <f>-1*Y10</f>
@@ -1987,7 +1996,7 @@
       </c>
       <c r="AA11" s="12">
         <f>_xlfn.RANK.AVG(AB11, AB:AB)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB11">
         <f>-1*Y11</f>
@@ -2087,7 +2096,7 @@
       </c>
       <c r="AA12" s="12">
         <f>_xlfn.RANK.AVG(AB12, AB:AB)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB12">
         <f>-1*Y12</f>
@@ -2187,7 +2196,7 @@
       </c>
       <c r="AA13" s="12">
         <f>_xlfn.RANK.AVG(AB13, AB:AB)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB13">
         <f>-1*Y13</f>
@@ -2287,7 +2296,7 @@
       </c>
       <c r="AA14" s="12">
         <f>_xlfn.RANK.AVG(AB14, AB:AB)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB14">
         <f>-1*Y14</f>
@@ -2387,7 +2396,7 @@
       </c>
       <c r="AA15" s="12">
         <f>_xlfn.RANK.AVG(AB15, AB:AB)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB15">
         <f>-1*Y15</f>
@@ -2487,7 +2496,7 @@
       </c>
       <c r="AA16" s="12">
         <f>_xlfn.RANK.AVG(AB16, AB:AB)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB16">
         <f>-1*Y16</f>
@@ -2587,7 +2596,7 @@
       </c>
       <c r="AA17" s="12">
         <f>_xlfn.RANK.AVG(AB17, AB:AB)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB17">
         <f>-1*Y17</f>
@@ -2679,19 +2688,19 @@
       </c>
       <c r="Y18" s="2">
         <f>AVERAGE(_xlfn.RANK.AVG(P18,P:P), _xlfn.RANK.AVG(Q18, Q:Q),_xlfn.RANK.AVG(R18, R:R),_xlfn.RANK.AVG(S18, S:S),_xlfn.RANK.AVG(T18, T:T),_xlfn.RANK.AVG(V18, V:V))</f>
-        <v>39.25</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="Z18" s="3">
         <f>AVERAGE(W18,Y18)</f>
-        <v>43.5</v>
+        <v>43.541666666666671</v>
       </c>
       <c r="AA18" s="12">
         <f>_xlfn.RANK.AVG(AB18, AB:AB)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB18">
         <f>-1*Y18</f>
-        <v>-39.25</v>
+        <v>-39.333333333333336</v>
       </c>
       <c r="AC18">
         <f t="shared" si="0"/>
@@ -2787,7 +2796,7 @@
       </c>
       <c r="AA19" s="12">
         <f>_xlfn.RANK.AVG(AB19, AB:AB)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB19">
         <f>-1*Y19</f>
@@ -2887,7 +2896,7 @@
       </c>
       <c r="AA20" s="12">
         <f>_xlfn.RANK.AVG(AB20, AB:AB)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB20">
         <f>-1*Y20</f>
@@ -2987,7 +2996,7 @@
       </c>
       <c r="AA21" s="12">
         <f>_xlfn.RANK.AVG(AB21, AB:AB)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB21">
         <f>-1*Y21</f>
@@ -3079,19 +3088,19 @@
       </c>
       <c r="Y22" s="2">
         <f>AVERAGE(_xlfn.RANK.AVG(P22,P:P), _xlfn.RANK.AVG(Q22, Q:Q),_xlfn.RANK.AVG(R22, R:R),_xlfn.RANK.AVG(S22, S:S),_xlfn.RANK.AVG(T22, T:T),_xlfn.RANK.AVG(V22, V:V))</f>
-        <v>48.916666666666664</v>
+        <v>49</v>
       </c>
       <c r="Z22" s="3">
         <f>AVERAGE(W22,Y22)</f>
-        <v>37.416666666666664</v>
+        <v>37.458333333333336</v>
       </c>
       <c r="AA22" s="12">
         <f>_xlfn.RANK.AVG(AB22, AB:AB)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB22">
         <f>-1*Y22</f>
-        <v>-48.916666666666664</v>
+        <v>-49</v>
       </c>
       <c r="AC22">
         <f t="shared" si="0"/>
@@ -3187,7 +3196,7 @@
       </c>
       <c r="AA23" s="12">
         <f>_xlfn.RANK.AVG(AB23, AB:AB)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB23">
         <f>-1*Y23</f>
@@ -3287,7 +3296,7 @@
       </c>
       <c r="AA24" s="12">
         <f>_xlfn.RANK.AVG(AB24, AB:AB)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB24">
         <f>-1*Y24</f>
@@ -3387,7 +3396,7 @@
       </c>
       <c r="AA25" s="13">
         <f>_xlfn.RANK.AVG(AB25, AB:AB)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB25">
         <f>-1*Y25</f>
@@ -3487,7 +3496,7 @@
       </c>
       <c r="AA26" s="11">
         <f>_xlfn.RANK.AVG(AB26, AB:AB)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB26">
         <f t="shared" ref="AB3:AB65" si="2">-1*Y26</f>
@@ -3587,7 +3596,7 @@
       </c>
       <c r="AA27" s="12">
         <f>_xlfn.RANK.AVG(AB27, AB:AB)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB27">
         <f t="shared" si="2"/>
@@ -3687,7 +3696,7 @@
       </c>
       <c r="AA28" s="12">
         <f>_xlfn.RANK.AVG(AB28, AB:AB)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB28">
         <f t="shared" si="2"/>
@@ -3787,7 +3796,7 @@
       </c>
       <c r="AA29" s="12">
         <f>_xlfn.RANK.AVG(AB29, AB:AB)</f>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="AB29">
         <f t="shared" si="2"/>
@@ -3887,7 +3896,7 @@
       </c>
       <c r="AA30" s="12">
         <f>_xlfn.RANK.AVG(AB30, AB:AB)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB30">
         <f t="shared" si="2"/>
@@ -3987,7 +3996,7 @@
       </c>
       <c r="AA31" s="12">
         <f>_xlfn.RANK.AVG(AB31, AB:AB)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB31">
         <f t="shared" si="2"/>
@@ -4087,7 +4096,7 @@
       </c>
       <c r="AA32" s="12">
         <f>_xlfn.RANK.AVG(AB32, AB:AB)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB32">
         <f t="shared" si="2"/>
@@ -4187,7 +4196,7 @@
       </c>
       <c r="AA33" s="12">
         <f>_xlfn.RANK.AVG(AB33, AB:AB)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB33">
         <f t="shared" si="2"/>
@@ -4287,7 +4296,7 @@
       </c>
       <c r="AA34" s="12">
         <f>_xlfn.RANK.AVG(AB34, AB:AB)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB34">
         <f t="shared" si="2"/>
@@ -4379,19 +4388,19 @@
       </c>
       <c r="Y35" s="2">
         <f>AVERAGE(_xlfn.RANK.AVG(P35,P:P), _xlfn.RANK.AVG(Q35, Q:Q),_xlfn.RANK.AVG(R35, R:R),_xlfn.RANK.AVG(S35, S:S),_xlfn.RANK.AVG(T35, T:T),_xlfn.RANK.AVG(V35, V:V))</f>
-        <v>46.583333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="Z35" s="3">
         <f t="shared" si="3"/>
-        <v>46.791666666666671</v>
+        <v>46.833333333333329</v>
       </c>
       <c r="AA35" s="12">
         <f>_xlfn.RANK.AVG(AB35, AB:AB)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB35">
         <f t="shared" si="2"/>
-        <v>-46.583333333333336</v>
+        <v>-46.666666666666664</v>
       </c>
       <c r="AC35">
         <f t="shared" si="0"/>
@@ -4479,19 +4488,19 @@
       </c>
       <c r="Y36" s="2">
         <f>AVERAGE(_xlfn.RANK.AVG(P36,P:P), _xlfn.RANK.AVG(Q36, Q:Q),_xlfn.RANK.AVG(R36, R:R),_xlfn.RANK.AVG(S36, S:S),_xlfn.RANK.AVG(T36, T:T),_xlfn.RANK.AVG(V36, V:V))</f>
-        <v>50.916666666666664</v>
+        <v>51</v>
       </c>
       <c r="Z36" s="3">
         <f t="shared" si="3"/>
-        <v>51.833333333333329</v>
+        <v>51.875</v>
       </c>
       <c r="AA36" s="12">
         <f>_xlfn.RANK.AVG(AB36, AB:AB)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB36">
         <f t="shared" si="2"/>
-        <v>-50.916666666666664</v>
+        <v>-51</v>
       </c>
       <c r="AC36">
         <f t="shared" si="0"/>
@@ -4579,19 +4588,19 @@
       </c>
       <c r="Y37" s="2">
         <f>AVERAGE(_xlfn.RANK.AVG(P37,P:P), _xlfn.RANK.AVG(Q37, Q:Q),_xlfn.RANK.AVG(R37, R:R),_xlfn.RANK.AVG(S37, S:S),_xlfn.RANK.AVG(T37, T:T),_xlfn.RANK.AVG(V37, V:V))</f>
-        <v>49.333333333333336</v>
+        <v>49.416666666666664</v>
       </c>
       <c r="Z37" s="3">
         <f t="shared" si="3"/>
-        <v>48.791666666666671</v>
+        <v>48.833333333333329</v>
       </c>
       <c r="AA37" s="13">
         <f>_xlfn.RANK.AVG(AB37, AB:AB)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB37">
         <f t="shared" si="2"/>
-        <v>-49.333333333333336</v>
+        <v>-49.416666666666664</v>
       </c>
       <c r="AC37">
         <f t="shared" si="0"/>
@@ -4687,7 +4696,7 @@
       </c>
       <c r="AA38" s="11">
         <f>_xlfn.RANK.AVG(AB38, AB:AB)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB38">
         <f t="shared" si="2"/>
@@ -4787,7 +4796,7 @@
       </c>
       <c r="AA39" s="12">
         <f>_xlfn.RANK.AVG(AB39, AB:AB)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB39">
         <f t="shared" si="2"/>
@@ -4879,19 +4888,19 @@
       </c>
       <c r="Y40" s="2">
         <f>AVERAGE(_xlfn.RANK.AVG(P40,P:P), _xlfn.RANK.AVG(Q40, Q:Q),_xlfn.RANK.AVG(R40, R:R),_xlfn.RANK.AVG(S40, S:S),_xlfn.RANK.AVG(T40, T:T),_xlfn.RANK.AVG(V40, V:V))</f>
-        <v>35.166666666666664</v>
+        <v>35.333333333333336</v>
       </c>
       <c r="Z40" s="3">
         <f t="shared" ref="Z40:Z49" si="4">AVERAGE(W40,Y40)</f>
-        <v>27.333333333333332</v>
+        <v>27.416666666666668</v>
       </c>
       <c r="AA40" s="12">
         <f>_xlfn.RANK.AVG(AB40, AB:AB)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB40">
         <f t="shared" si="2"/>
-        <v>-35.166666666666664</v>
+        <v>-35.333333333333336</v>
       </c>
       <c r="AC40">
         <f t="shared" si="0"/>
@@ -4987,7 +4996,7 @@
       </c>
       <c r="AA41" s="12">
         <f>_xlfn.RANK.AVG(AB41, AB:AB)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB41">
         <f t="shared" si="2"/>
@@ -5087,7 +5096,7 @@
       </c>
       <c r="AA42" s="12">
         <f>_xlfn.RANK.AVG(AB42, AB:AB)</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="AB42">
         <f t="shared" si="2"/>
@@ -5187,7 +5196,7 @@
       </c>
       <c r="AA43" s="12">
         <f>_xlfn.RANK.AVG(AB43, AB:AB)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB43">
         <f t="shared" si="2"/>
@@ -5287,7 +5296,7 @@
       </c>
       <c r="AA44" s="12">
         <f>_xlfn.RANK.AVG(AB44, AB:AB)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB44">
         <f t="shared" si="2"/>
@@ -5387,7 +5396,7 @@
       </c>
       <c r="AA45" s="12">
         <f>_xlfn.RANK.AVG(AB45, AB:AB)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB45">
         <f t="shared" si="2"/>
@@ -5487,7 +5496,7 @@
       </c>
       <c r="AA46" s="12">
         <f>_xlfn.RANK.AVG(AB46, AB:AB)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB46">
         <f t="shared" si="2"/>
@@ -5587,7 +5596,7 @@
       </c>
       <c r="AA47" s="12">
         <f>_xlfn.RANK.AVG(AB47, AB:AB)</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="AB47">
         <f t="shared" si="2"/>
@@ -5679,19 +5688,19 @@
       </c>
       <c r="Y48" s="2">
         <f>AVERAGE(_xlfn.RANK.AVG(P48,P:P), _xlfn.RANK.AVG(Q48, Q:Q),_xlfn.RANK.AVG(R48, R:R),_xlfn.RANK.AVG(S48, S:S),_xlfn.RANK.AVG(T48, T:T),_xlfn.RANK.AVG(V48, V:V))</f>
-        <v>53.833333333333336</v>
+        <v>53.916666666666664</v>
       </c>
       <c r="Z48" s="3">
         <f t="shared" si="4"/>
-        <v>52.916666666666671</v>
+        <v>52.958333333333329</v>
       </c>
       <c r="AA48" s="12">
         <f>_xlfn.RANK.AVG(AB48, AB:AB)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB48">
         <f t="shared" si="2"/>
-        <v>-53.833333333333336</v>
+        <v>-53.916666666666664</v>
       </c>
       <c r="AC48">
         <f t="shared" si="0"/>
@@ -5771,7 +5780,7 @@
       </c>
       <c r="W49" s="4">
         <f>AVERAGE( _xlfn.RANK.AVG(B49,B:B), _xlfn.RANK.AVG(C49, C:C),_xlfn.RANK.AVG(D49, D:D),_xlfn.RANK.AVG(E49, E:E),_xlfn.RANK.AVG(F49, F:F),_xlfn.RANK.AVG(H49, H:H))</f>
-        <v>54.25</v>
+        <v>54.5</v>
       </c>
       <c r="X49" s="5">
         <f>AVERAGE(_xlfn.RANK.AVG(I49,I:I), _xlfn.RANK.AVG(J49, J:J),_xlfn.RANK.AVG(K49, K:K),_xlfn.RANK.AVG(L49, L:L),_xlfn.RANK.AVG(M49, M:M),_xlfn.RANK.AVG(O49, O:O))</f>
@@ -5779,19 +5788,19 @@
       </c>
       <c r="Y49" s="5">
         <f>AVERAGE(_xlfn.RANK.AVG(P49,P:P), _xlfn.RANK.AVG(Q49, Q:Q),_xlfn.RANK.AVG(R49, R:R),_xlfn.RANK.AVG(S49, S:S),_xlfn.RANK.AVG(T49, T:T),_xlfn.RANK.AVG(V49, V:V))</f>
-        <v>50</v>
+        <v>50.083333333333336</v>
       </c>
       <c r="Z49" s="3">
         <f t="shared" si="4"/>
-        <v>52.125</v>
+        <v>52.291666666666671</v>
       </c>
       <c r="AA49" s="13">
         <f>_xlfn.RANK.AVG(AB49, AB:AB)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB49">
         <f t="shared" si="2"/>
-        <v>-50</v>
+        <v>-50.083333333333336</v>
       </c>
       <c r="AC49">
         <f t="shared" si="0"/>
@@ -5870,7 +5879,7 @@
       </c>
       <c r="AA50" s="11">
         <f>_xlfn.RANK.AVG(AB50, AB:AB)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB50">
         <f>-1*Y50</f>
@@ -5953,7 +5962,7 @@
       </c>
       <c r="AA51" s="12">
         <f>_xlfn.RANK.AVG(AB51, AB:AB)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB51">
         <f>-1*Y51</f>
@@ -6036,7 +6045,7 @@
       </c>
       <c r="AA52" s="12">
         <f>_xlfn.RANK.AVG(AB52, AB:AB)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB52">
         <f>-1*Y52</f>
@@ -6119,7 +6128,7 @@
       </c>
       <c r="AA53" s="12">
         <f>_xlfn.RANK.AVG(AB53, AB:AB)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB53">
         <f>-1*Y53</f>
@@ -6202,7 +6211,7 @@
       </c>
       <c r="AA54" s="12">
         <f>_xlfn.RANK.AVG(AB54, AB:AB)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB54">
         <f>-1*Y54</f>
@@ -6285,7 +6294,7 @@
       </c>
       <c r="AA55" s="12">
         <f>_xlfn.RANK.AVG(AB55, AB:AB)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB55">
         <f>-1*Y55</f>
@@ -6368,7 +6377,7 @@
       </c>
       <c r="AA56" s="12">
         <f>_xlfn.RANK.AVG(AB56, AB:AB)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB56">
         <f>-1*Y56</f>
@@ -6451,7 +6460,7 @@
       </c>
       <c r="AA57" s="12">
         <f>_xlfn.RANK.AVG(AB57, AB:AB)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB57">
         <f>-1*Y57</f>
@@ -6534,7 +6543,7 @@
       </c>
       <c r="AA58" s="12">
         <f>_xlfn.RANK.AVG(AB58, AB:AB)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB58">
         <f>-1*Y58</f>
@@ -6617,7 +6626,7 @@
       </c>
       <c r="AA59" s="12">
         <f>_xlfn.RANK.AVG(AB59, AB:AB)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB59">
         <f>-1*Y59</f>
@@ -6700,7 +6709,7 @@
       </c>
       <c r="AA60" s="12">
         <f>_xlfn.RANK.AVG(AB60, AB:AB)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB60">
         <f>-1*Y60</f>
@@ -6783,7 +6792,7 @@
       </c>
       <c r="AA61" s="12">
         <f>_xlfn.RANK.AVG(AB61, AB:AB)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB61">
         <f>-1*Y61</f>
@@ -6866,7 +6875,7 @@
       </c>
       <c r="AA62" s="12">
         <f>_xlfn.RANK.AVG(AB62, AB:AB)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB62">
         <f>-1*Y62</f>
@@ -6949,7 +6958,7 @@
       </c>
       <c r="AA63" s="12">
         <f>_xlfn.RANK.AVG(AB63, AB:AB)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB63">
         <f>-1*Y63</f>
@@ -7032,7 +7041,7 @@
       </c>
       <c r="AA64" s="12">
         <f>_xlfn.RANK.AVG(AB64, AB:AB)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB64">
         <f>-1*Y64</f>
@@ -7115,7 +7124,7 @@
       </c>
       <c r="AA65" s="13">
         <f>_xlfn.RANK.AVG(AB65, AB:AB)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB65">
         <f>-1*Y65</f>
@@ -7128,13 +7137,218 @@
       <c r="AD65">
         <f t="shared" si="1"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67">
+        <f>B3-B51</f>
+        <v>0.13787878787878782</v>
+      </c>
+      <c r="C67">
+        <f>C3-C51</f>
+        <v>9.8484848484848508E-2</v>
+      </c>
+      <c r="D67">
+        <f>D3-D51</f>
+        <v>0.1477272727272726</v>
+      </c>
+      <c r="E67">
+        <f>E3-E51</f>
+        <v>0.14772727272727271</v>
+      </c>
+      <c r="F67">
+        <f>F3-F51</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G67">
+        <f>G3-G51</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="H67">
+        <f>H3-H51</f>
+        <v>0.21212121212121215</v>
+      </c>
+      <c r="P67">
+        <f>P3-P51</f>
+        <v>4.2424242424242475E-2</v>
+      </c>
+      <c r="Q67">
+        <f>Q3-Q51</f>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="R67">
+        <f>R3-R51</f>
+        <v>2.2727272727272929E-2</v>
+      </c>
+      <c r="S67">
+        <f>S3-S51</f>
+        <v>2.2727272727272818E-2</v>
+      </c>
+      <c r="T67">
+        <f>T3-T51</f>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="U67">
+        <f>U3-U51</f>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="V67">
+        <f>V3-V51</f>
+        <v>0.21212121212121215</v>
+      </c>
+      <c r="W67">
+        <f>W3-W51</f>
+        <v>-15.166666666666668</v>
+      </c>
+      <c r="X67">
+        <f>X3-X51</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="Y67">
+        <f>Y3-Y51</f>
+        <v>-6</v>
+      </c>
+      <c r="Z67">
+        <f>Z3-Z51</f>
+        <v>-10.583333333333336</v>
+      </c>
+      <c r="AA67">
+        <f>AA3-AA51</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A69" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69">
+        <f>B2-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:AD69" si="5">C2-C3</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>-4.2929292929293039E-2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>-2.525252525252486E-3</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>-5.3030303030302983E-2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="5"/>
+        <v>-5.3030303030302983E-2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>-0.16666666666666674</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="5"/>
+        <v>-0.16666666666666674</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="5"/>
+        <v>6.0606060606060663E-2</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="5"/>
+        <v>2.6767676767676774E-2</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="5"/>
+        <v>7.3232323232323204E-2</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>1.5151515151515027E-2</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="5"/>
+        <v>1.5151515151515138E-2</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="5"/>
+        <v>3.0303030303030276E-2</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333393</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="5"/>
+        <v>-1.3333333333333321</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="5"/>
+        <v>-0.6666666666666643</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AB69">
+        <f>AB2-AB3</f>
+        <v>1.3333333333333321</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="5"/>
+        <v>1.5151515151515138E-2</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB25">
     <sortCondition ref="AA2:AA25"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B1048576 C67:AA67 C69:AD69">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -7146,7 +7360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C66 C68 C70:C1048576">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -7158,7 +7372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D66 D68 D70:D1048576">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -7170,7 +7384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E1:E66 E68 E70:E1048576">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -7182,7 +7396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F66 F68 F70:F1048576">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -7194,7 +7408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G66 G68 G70:G1048576">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -7206,7 +7420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H1:H66 H68 H70:H1048576">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -7218,7 +7432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I1:I66 I68 I70:I1048576">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -7230,7 +7444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:J66 J68 J70:J1048576">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -7242,7 +7456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1:K66 K68 K70:K1048576">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -7254,7 +7468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="L1:L66 L68 L70:L1048576">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -7266,7 +7480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="M1:M66 M68 M70:M1048576">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -7278,7 +7492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1:N66 N68 N70:N1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -7290,7 +7504,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="O1:O66 O68 O70:O1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -7302,7 +7516,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="P1:P66 P68 P70:P1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -7314,7 +7528,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
+  <conditionalFormatting sqref="Q1:Q66 Q68 Q70:Q1048576">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -7326,7 +7540,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
+  <conditionalFormatting sqref="R1:R66 R68 R70:R1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -7338,7 +7552,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576">
+  <conditionalFormatting sqref="S1:S66 S68 S70:S1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -7350,7 +7564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1048576">
+  <conditionalFormatting sqref="T1:T66 T68 T70:T1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -7362,7 +7576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
+  <conditionalFormatting sqref="U1:U66 U68 U70:U1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -7374,7 +7588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
+  <conditionalFormatting sqref="V1:V66 V68 V70:V1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7386,7 +7600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:W1048576">
+  <conditionalFormatting sqref="W1:W66 W68 W70:W1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -7398,7 +7612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576">
+  <conditionalFormatting sqref="X1:X66 X68 X70:X1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7410,7 +7624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1048576">
+  <conditionalFormatting sqref="Y1:Y66 Y68 Y70:Y1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7422,7 +7636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1048576">
+  <conditionalFormatting sqref="Z1:Z66 Z68 Z70:Z1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
